--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590859.528454659</v>
+        <v>1592892.078048141</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12448913.88118193</v>
+        <v>12429862.82662184</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>763237.319988545</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10473075.91825452</v>
+        <v>10342273.14786244</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>238.3789257495765</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>239.807948141505</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.72100737961711</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>120.3448634941106</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>107.2977824924682</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.5431126044841</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.23795296834189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2905114143477</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143477</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>242.9456793794568</v>
+        <v>392.0610161380558</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430064</v>
+        <v>12.0625419917537</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790342</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>203.3914109145092</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>116.378437499986</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.5368145918949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5375391943846</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>53.42061928173353</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>111.7415652658288</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340498</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>100.8271945434326</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>259.6580847920586</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.42775815369509</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>197.4149500449653</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>91.32784210538742</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411754</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>16.26372492004458</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001823</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>127.6429814757065</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3074490814213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001823</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.40931526047759</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>48.47457675531671</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>81.13054509253648</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>113.5028334418564</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6866318399304</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.72582864853726</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.7812597870353</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>502.2016801857461</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
-        <v>259.9714295377613</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779383</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948978</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337309</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>502.2016801857461</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="W2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="X2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y2" t="n">
-        <v>502.2016801857461</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.3440877722692</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146774</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>403.519389884976</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717337002</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682066</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682066</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682066</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682066</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>816.5594247923373</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>816.5594247923373</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X3" t="n">
-        <v>816.5594247923373</v>
+        <v>129.4787088773612</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.5594247923373</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.0251395333188</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>335.0889566054119</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9723171930762</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068302</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068302</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068302</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068302</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068302</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916895</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660199</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660199</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660199</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660199</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660199</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660199</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660199</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X4" t="n">
-        <v>906.4661835070887</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.6736043635585</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.9393068550194</v>
+        <v>1560.157223693085</v>
       </c>
       <c r="C5" t="n">
-        <v>574.716568052648</v>
+        <v>1191.194706752674</v>
       </c>
       <c r="D5" t="n">
-        <v>281.4938292502766</v>
+        <v>832.9290081459233</v>
       </c>
       <c r="E5" t="n">
-        <v>281.4938292502766</v>
+        <v>447.140755547679</v>
       </c>
       <c r="F5" t="n">
-        <v>36.0941531094111</v>
+        <v>51.1195271254004</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382952004</v>
+        <v>131.9571651482873</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444963</v>
+        <v>322.1115837080047</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084653</v>
+        <v>594.9167163931606</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162882</v>
+        <v>930.134427871148</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753707</v>
+        <v>1275.390120759009</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416942</v>
+        <v>1588.070020006759</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171416</v>
+        <v>1820.434079050619</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="Y5" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.3826928340966</v>
+        <v>668.0945931960929</v>
       </c>
       <c r="C6" t="n">
-        <v>477.9296635529696</v>
+        <v>493.6415639149659</v>
       </c>
       <c r="D6" t="n">
-        <v>328.9952538917183</v>
+        <v>344.7071542537146</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862628</v>
+        <v>185.4696992482592</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314782</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508951</v>
+        <v>155.4398398429129</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063298</v>
+        <v>557.9455817863533</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119418</v>
+        <v>793.4366785594392</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702546</v>
+        <v>1087.600549268443</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269158</v>
+        <v>1403.958707238946</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145469</v>
+        <v>1671.144821000369</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356737</v>
+        <v>1866.252166594516</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657391</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891832</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891832</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891832</v>
+        <v>1946.757063757207</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891832</v>
+        <v>1741.311194146592</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.912305891832</v>
+        <v>1506.159085914849</v>
       </c>
       <c r="W6" t="n">
-        <v>1145.912305891832</v>
+        <v>1251.921729186648</v>
       </c>
       <c r="X6" t="n">
-        <v>1028.358328619119</v>
+        <v>1044.070228981115</v>
       </c>
       <c r="Y6" t="n">
-        <v>820.5980298541647</v>
+        <v>836.3099302161609</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.50147399739527</v>
+        <v>987.8412306976569</v>
       </c>
       <c r="C7" t="n">
-        <v>35.50147399739527</v>
+        <v>818.90504776975</v>
       </c>
       <c r="D7" t="n">
-        <v>35.50147399739527</v>
+        <v>668.7884083574143</v>
       </c>
       <c r="E7" t="n">
-        <v>35.50147399739527</v>
+        <v>520.8753147750211</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739527</v>
+        <v>373.9853672771108</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739527</v>
+        <v>205.7656307171263</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739527</v>
+        <v>151.8054092204257</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739527</v>
+        <v>38.93514127514414</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314782</v>
+        <v>48.24019036367918</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279151</v>
+        <v>193.3680811278624</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993047</v>
+        <v>434.6082501249914</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837277</v>
+        <v>699.3513070593867</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730513</v>
+        <v>963.2339822515628</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967879</v>
+        <v>1190.956047925684</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.66938219591</v>
+        <v>1362.29093308351</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899866</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899866</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899866</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899866</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899866</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="V7" t="n">
-        <v>839.8995766939789</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="W7" t="n">
-        <v>550.4824066570184</v>
+        <v>1397.479246425914</v>
       </c>
       <c r="X7" t="n">
-        <v>322.492855759001</v>
+        <v>1169.489695527897</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.7002766154709</v>
+        <v>1169.489695527897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.132293616578</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.132293616578</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>949.8665950098273</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>564.078342411583</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>153.0924376219754</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4804,52 +4804,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872942</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923564</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182522</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057905</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735137</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049851</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.39011576115</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937311</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>513.7702631754859</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>363.6536237631501</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>215.740530180757</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>68.85058268284664</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>68.85058268284664</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020473</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.637649969323</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096581</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1885.210734949511</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1630.526246743624</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.109076706663</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.119525808646</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>698.4235641958604</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>529.4873812679535</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>529.4873812679535</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>381.5742876855604</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>880.0720290261002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1002.813985992963</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>833.8778030650566</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>683.7611636527208</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>535.8480700703277</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>388.9581225724173</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>221.7439277469962</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1922.661750901711</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.022373354577</v>
+        <v>1633.244580864751</v>
       </c>
       <c r="X19" t="n">
-        <v>1031.03282245656</v>
+        <v>1405.255029966733</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1184.462450823203</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>301.0525042748308</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>791.784837118582</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>726.9917339741373</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>558.0555510462304</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180513</v>
+        <v>407.9389116338947</v>
       </c>
       <c r="E22" t="n">
-        <v>451.6888124356582</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,13 +6010,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900017</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776659</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>148.6919058973624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7356,22 +7356,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
         <v>974.1018203925706</v>
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1063.573343591573</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>894.6371606636665</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>744.5205212513307</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>596.6074276689376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>449.7174801710272</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1245.221808421813</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.7846258892351</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.96696197637921</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839804</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.7423662450677</v>
+        <v>12.04860576852792</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>80.72653067735145</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460171</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>38.04066719546967</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515172</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154998</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>213.5067756084882</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>194.8566322838567</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>202.3209284320502</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729184</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>12.81100831624738</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.21554925516972</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>50.29152613729184</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.4226649214597</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>96.94647126761453</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>67.48492792567588</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>67.5234525597882</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>68.49784254931379</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>919962.1335293174</v>
+        <v>921039.9397338658</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921431.1494121975</v>
+        <v>924163.5541196661</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900060.1389592531</v>
+        <v>762392.497036272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900060.1389592531</v>
+        <v>895146.6281020802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900060.1389592531</v>
+        <v>895146.6281020804</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900060.1389592532</v>
+        <v>895146.6281020804</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985036</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.85156472</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26340,13 +26340,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26355,7 +26355,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.3234221107</v>
+        <v>246821.0575880738</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276221</v>
+        <v>157482.3140053811</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>306241.8686975054</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>68999.15441911425</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440493</v>
+        <v>57386.72912803857</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166623</v>
+        <v>38949.5827351871</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80518.2412563603</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>253911.4645514929</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431035</v>
+        <v>188018.9790290241</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.093982819</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302712</v>
+        <v>80789.0776435258</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-440777.8038087047</v>
+        <v>-463370.0979351682</v>
       </c>
       <c r="C6" t="n">
-        <v>166578.7654135429</v>
+        <v>18048.03615116041</v>
       </c>
       <c r="D6" t="n">
-        <v>-66491.60263850144</v>
+        <v>139305.9699837395</v>
       </c>
       <c r="E6" t="n">
-        <v>-97306.92505113692</v>
+        <v>173749.1664266539</v>
       </c>
       <c r="F6" t="n">
-        <v>410178.5165734092</v>
+        <v>102321.6178322054</v>
       </c>
       <c r="G6" t="n">
-        <v>410178.5165734093</v>
+        <v>408563.4865297109</v>
       </c>
       <c r="H6" t="n">
-        <v>410178.5165734092</v>
+        <v>408563.4865297106</v>
       </c>
       <c r="I6" t="n">
-        <v>410178.5165734094</v>
+        <v>399672.2444448821</v>
       </c>
       <c r="J6" t="n">
-        <v>347434.2057898735</v>
+        <v>341492.0034832165</v>
       </c>
       <c r="K6" t="n">
-        <v>397185.9202290044</v>
+        <v>353104.4287742921</v>
       </c>
       <c r="L6" t="n">
-        <v>321522.176656747</v>
+        <v>371541.5751671435</v>
       </c>
       <c r="M6" t="n">
-        <v>277571.2228444828</v>
+        <v>362938.8921089159</v>
       </c>
       <c r="N6" t="n">
-        <v>410178.5165734094</v>
+        <v>329972.9166459704</v>
       </c>
       <c r="O6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="P6" t="n">
-        <v>410178.5165734093</v>
+        <v>410491.1579023307</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575591</v>
+        <v>805.9986364411126</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143477</v>
+        <v>486.6892659393018</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949412</v>
+        <v>191.9436226716342</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599795</v>
+        <v>128.0662556764267</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284275</v>
+        <v>222.9753859377956</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856912</v>
+        <v>153.8955661607371</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015068</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284252</v>
+        <v>222.9753859377956</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856913</v>
+        <v>153.895566160737</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284275</v>
+        <v>222.9753859377956</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856912</v>
+        <v>153.8955661607371</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002065</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>174.5379781963603</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079567</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>308.0312510905178</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4557236553146</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>98.38491328483612</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>100.1760516391096</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4717024206953</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913288</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035665986</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633527</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>163.9303663622546</v>
+        <v>14.8150296036556</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>306.2911497119379</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401374</v>
+        <v>85.55825165524611</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>135.1841140971927</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>208.9118936605295</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>251.086437265966</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>135.6098597187901</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337434</v>
+        <v>95.49196312854052</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370905</v>
+        <v>29.70711119044588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>139.481244449799</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>193.1768725920916</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>22.43591475564853</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>89.39454770349145</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.2951655900424</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856348</v>
+        <v>95.8841488578469</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>111.941436363436</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>198.6870999048803</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>221.7354359999647</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>286.2397508020869</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>310.7205082295214</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247058</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>68.09417367807634</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>129.8237510014337</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951984011</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834406</v>
+        <v>3.240195523381355</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219537</v>
+        <v>33.18365240382931</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026855</v>
+        <v>124.9176379151598</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977694</v>
+        <v>275.0075448025885</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782899</v>
+        <v>412.1650213073213</v>
       </c>
       <c r="L5" t="n">
-        <v>404.071538771976</v>
+        <v>511.3271550560036</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341648</v>
+        <v>568.9499821949368</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141856</v>
+        <v>578.1561877257441</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681384</v>
+        <v>545.9364934901206</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260039</v>
+        <v>465.9441665066434</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976567</v>
+        <v>349.9046643255485</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690644</v>
+        <v>203.5369320456042</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051409</v>
+        <v>73.83595548905269</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475262</v>
+        <v>14.18395590360189</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667525</v>
+        <v>0.2592156418705083</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772863</v>
+        <v>1.733657444420506</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312213</v>
+        <v>16.74348110795595</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770603</v>
+        <v>59.6895216609692</v>
       </c>
       <c r="J6" t="n">
-        <v>129.43558968883</v>
+        <v>163.7926096941322</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756118</v>
+        <v>279.9476584703061</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916035</v>
+        <v>376.424174500163</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758697</v>
+        <v>439.2692568604063</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264254</v>
+        <v>450.8954070030334</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511425</v>
+        <v>412.4812078398211</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892057</v>
+        <v>331.0525342771053</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316378</v>
+        <v>221.2998520281334</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473971</v>
+        <v>107.6388367684943</v>
       </c>
       <c r="S6" t="n">
-        <v>25.4472736795968</v>
+        <v>32.20192665403877</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479213</v>
+        <v>6.987856102730021</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663575</v>
+        <v>0.1140564108171386</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611992</v>
+        <v>1.453440164074137</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180481</v>
+        <v>12.92240436785916</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749518</v>
+        <v>43.70890966142952</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2037293632678</v>
+        <v>102.7582196000415</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438296</v>
+        <v>168.8633208806134</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400774</v>
+        <v>216.0869131206222</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577506</v>
+        <v>227.8333522648213</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645606</v>
+        <v>222.4159843805452</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846841</v>
+        <v>205.4371606456791</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321994</v>
+        <v>175.7869812985665</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579141</v>
+        <v>121.705794102608</v>
       </c>
       <c r="R7" t="n">
-        <v>51.6437759329719</v>
+        <v>65.35195501373346</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157443</v>
+        <v>25.329498132092</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705781</v>
+        <v>6.210153428316767</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156326</v>
+        <v>0.07927855440404394</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181056</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441729999</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.681109916659</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745092</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762068</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000167</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069556</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>199.0463877591109</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>69.67512249932359</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108312</v>
+        <v>93.9616402759022</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333093</v>
+        <v>192.0751702623407</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019887</v>
+        <v>275.5607400860163</v>
       </c>
       <c r="M5" t="n">
-        <v>219.261209906892</v>
+        <v>338.603748967664</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175947</v>
+        <v>348.7431241291532</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464517</v>
+        <v>315.8382820684338</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047694</v>
+        <v>234.7111707513739</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320723</v>
+        <v>127.598974451099</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163327</v>
+        <v>117.6815137048169</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125283</v>
+        <v>406.5714565085257</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117293</v>
+        <v>237.8697947202888</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538513</v>
+        <v>297.135222938388</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430921</v>
+        <v>319.5536949197001</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066981</v>
+        <v>269.8849633953766</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748755</v>
+        <v>197.0781268627751</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916334</v>
+        <v>81.3180779421119</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.399039483368725</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179467</v>
+        <v>146.5938290547305</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003935</v>
+        <v>243.6769383809384</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195912</v>
+        <v>267.4172292266619</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437892</v>
+        <v>266.5481567597737</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987238</v>
+        <v>230.0222885597187</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970929</v>
+        <v>173.06554056346</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409703</v>
+        <v>35.54375085091361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457272</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949723</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637945</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402554</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939887</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091728</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560632</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378499</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820401</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928735</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961227</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750492</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308543</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870585</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>61.20494878475188</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
